--- a/runs/run048/NotionalETEOutput048.xlsx
+++ b/runs/run048/NotionalETEOutput048.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER1_State_Update</t>
+    <t>Missile_ANGERMAX2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER1_362.MISSILE_HELLMASKER1_362</t>
+    <t>MISSILE_ANGERMAX2_148.MISSILE_ANGERMAX2_148</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER1</t>
+    <t>MISSILE_ANGERMAX2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1470.584711431433</v>
+        <v>-1532.569443160237</v>
       </c>
       <c r="J2">
-        <v>1932.922073638367</v>
+        <v>2091.64420930228</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1400.217187065288</v>
+        <v>-1432.805979884477</v>
       </c>
       <c r="J3">
-        <v>1917.306025659789</v>
+        <v>1880.392968371256</v>
       </c>
       <c r="K3">
-        <v>299.2408301520002</v>
+        <v>315.4799214776446</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1461.118781724175</v>
+        <v>-1416.353960930447</v>
       </c>
       <c r="J4">
-        <v>1847.750571897742</v>
+        <v>1995.825132563116</v>
       </c>
       <c r="K4">
-        <v>592.4325586490619</v>
+        <v>571.9525873371675</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1420.074828018852</v>
+        <v>-1365.132422751655</v>
       </c>
       <c r="J5">
-        <v>1880.097315312563</v>
+        <v>1820.299458422332</v>
       </c>
       <c r="K5">
-        <v>841.579788316066</v>
+        <v>884.8206490091209</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1429.583165700215</v>
+        <v>-1430.019081019922</v>
       </c>
       <c r="J6">
-        <v>1749.898835548594</v>
+        <v>1861.874017279969</v>
       </c>
       <c r="K6">
-        <v>1121.885664851457</v>
+        <v>1161.620278017288</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1340.171180422898</v>
+        <v>-1286.718143018195</v>
       </c>
       <c r="J7">
-        <v>1704.571619692742</v>
+        <v>1839.768959527849</v>
       </c>
       <c r="K7">
-        <v>1367.607469740331</v>
+        <v>1415.141421547908</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1314.570675934688</v>
+        <v>-1250.404847536945</v>
       </c>
       <c r="J8">
-        <v>1712.210308468025</v>
+        <v>1671.616600736645</v>
       </c>
       <c r="K8">
-        <v>1614.745530128899</v>
+        <v>1559.929087269651</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.2413953605494</v>
+        <v>-100.1075043815225</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1217.499750646281</v>
+        <v>-1257.043293737805</v>
       </c>
       <c r="J9">
-        <v>1639.004566270304</v>
+        <v>1715.192627917277</v>
       </c>
       <c r="K9">
-        <v>1761.43287396697</v>
+        <v>1819.941259842105</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>206.9458116107945</v>
+        <v>217.1997371264238</v>
       </c>
       <c r="G10">
-        <v>-83.31718121175872</v>
+        <v>-80.97387124362569</v>
       </c>
       <c r="H10">
-        <v>855.7241958113992</v>
+        <v>872.4451899553608</v>
       </c>
       <c r="I10">
-        <v>-1190.136660601843</v>
+        <v>-1272.544675275681</v>
       </c>
       <c r="J10">
-        <v>1688.714392581864</v>
+        <v>1574.178902810048</v>
       </c>
       <c r="K10">
-        <v>2017.116353699502</v>
+        <v>2101.16320274215</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.0545241339219</v>
+        <v>172.6520809185934</v>
       </c>
       <c r="G11">
-        <v>-68.10773226736936</v>
+        <v>-67.54152100308688</v>
       </c>
       <c r="H11">
-        <v>1042.302776916423</v>
+        <v>1022.710958442598</v>
       </c>
       <c r="I11">
-        <v>-1261.330929662409</v>
+        <v>-1245.197304882324</v>
       </c>
       <c r="J11">
-        <v>1637.203605148581</v>
+        <v>1527.828769523249</v>
       </c>
       <c r="K11">
-        <v>2279.285642513166</v>
+        <v>2276.827396039729</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>134.6280961596322</v>
+        <v>138.1179119947109</v>
       </c>
       <c r="G12">
-        <v>-48.63860452295901</v>
+        <v>-48.32628957638322</v>
       </c>
       <c r="H12">
-        <v>1127.967595509126</v>
+        <v>1119.14286455836</v>
       </c>
       <c r="I12">
-        <v>-1169.223673247061</v>
+        <v>-1157.103574748854</v>
       </c>
       <c r="J12">
-        <v>1579.792460212858</v>
+        <v>1455.724979973682</v>
       </c>
       <c r="K12">
-        <v>2254.08226835211</v>
+        <v>2381.759168134771</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.2450335680936</v>
+        <v>122.7675041543141</v>
       </c>
       <c r="G13">
-        <v>-33.33847707841832</v>
+        <v>-35.53514522536025</v>
       </c>
       <c r="H13">
-        <v>1300.13584975093</v>
+        <v>1229.363939977901</v>
       </c>
       <c r="I13">
-        <v>-1092.81161959491</v>
+        <v>-1177.717138387528</v>
       </c>
       <c r="J13">
-        <v>1401.580774330309</v>
+        <v>1451.851465299932</v>
       </c>
       <c r="K13">
-        <v>2412.011795590456</v>
+        <v>2624.222285239717</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>106.1682692152244</v>
+        <v>107.2856997631546</v>
       </c>
       <c r="G14">
-        <v>-17.40734555200867</v>
+        <v>-17.84604132580545</v>
       </c>
       <c r="H14">
-        <v>1273.678859698341</v>
+        <v>1329.126445987942</v>
       </c>
       <c r="I14">
-        <v>-1139.182475090762</v>
+        <v>-1084.673541027756</v>
       </c>
       <c r="J14">
-        <v>1467.636518045088</v>
+        <v>1437.769040338454</v>
       </c>
       <c r="K14">
-        <v>2544.927412490676</v>
+        <v>2549.479195042155</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.64789653021818</v>
+        <v>103.5934599035079</v>
       </c>
       <c r="G15">
-        <v>-0.9617290864720298</v>
+        <v>-0.9531431423459443</v>
       </c>
       <c r="H15">
-        <v>1359.230974436012</v>
+        <v>1343.441512637327</v>
       </c>
       <c r="I15">
-        <v>-1072.913812758719</v>
+        <v>-1069.066090179566</v>
       </c>
       <c r="J15">
-        <v>1423.708751436124</v>
+        <v>1417.470422850138</v>
       </c>
       <c r="K15">
-        <v>2888.733557167773</v>
+        <v>2833.208629041173</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>96.64020588218932</v>
+        <v>92.43938879551391</v>
       </c>
       <c r="G16">
-        <v>16.01648780315841</v>
+        <v>15.05589062314821</v>
       </c>
       <c r="H16">
-        <v>1363.201846433724</v>
+        <v>1468.5190389636</v>
       </c>
       <c r="I16">
-        <v>-995.373093785171</v>
+        <v>-1040.149995747959</v>
       </c>
       <c r="J16">
-        <v>1313.970506138513</v>
+        <v>1288.395112398662</v>
       </c>
       <c r="K16">
-        <v>2742.931511105793</v>
+        <v>2797.673269541106</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.46025292678441</v>
+        <v>85.60061954163766</v>
       </c>
       <c r="G17">
-        <v>33.6771999610671</v>
+        <v>32.34622534667264</v>
       </c>
       <c r="H17">
-        <v>1397.271203423626</v>
+        <v>1409.989601347677</v>
       </c>
       <c r="I17">
-        <v>-986.4836455988907</v>
+        <v>-1002.362986471301</v>
       </c>
       <c r="J17">
-        <v>1324.249874192186</v>
+        <v>1319.401307014549</v>
       </c>
       <c r="K17">
-        <v>2979.237231258579</v>
+        <v>3059.678916718226</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.35616078087585</v>
+        <v>79.47483989946029</v>
       </c>
       <c r="G18">
-        <v>49.02623836312539</v>
+        <v>47.6089691428822</v>
       </c>
       <c r="H18">
-        <v>1543.976206493118</v>
+        <v>1527.483546146846</v>
       </c>
       <c r="I18">
-        <v>-946.324883481809</v>
+        <v>-921.5276285086109</v>
       </c>
       <c r="J18">
-        <v>1257.916521903605</v>
+        <v>1269.940424863137</v>
       </c>
       <c r="K18">
-        <v>2924.079607267546</v>
+        <v>2911.579104782205</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.63076360446654</v>
+        <v>76.0790360990915</v>
       </c>
       <c r="G19">
-        <v>64.39669762565343</v>
+        <v>67.05653654285068</v>
       </c>
       <c r="H19">
-        <v>1545.574420898349</v>
+        <v>1526.437572627055</v>
       </c>
       <c r="I19">
-        <v>-866.9597450484457</v>
+        <v>-892.0155065835576</v>
       </c>
       <c r="J19">
-        <v>1175.114712921759</v>
+        <v>1190.616117728309</v>
       </c>
       <c r="K19">
-        <v>2992.862154772622</v>
+        <v>2994.335989433202</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.01371539973128</v>
+        <v>77.19225672148521</v>
       </c>
       <c r="G20">
-        <v>80.26600429889223</v>
+        <v>79.99938903054488</v>
       </c>
       <c r="H20">
-        <v>1507.271930315252</v>
+        <v>1563.977303578313</v>
       </c>
       <c r="I20">
-        <v>-817.1114722485346</v>
+        <v>-810.3776461464402</v>
       </c>
       <c r="J20">
-        <v>1140.05217428865</v>
+        <v>1153.00685362495</v>
       </c>
       <c r="K20">
-        <v>3305.99114743455</v>
+        <v>3221.980077401762</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.65867202270651</v>
+        <v>68.0863912842138</v>
       </c>
       <c r="G21">
-        <v>94.29554779675316</v>
+        <v>101.6877487648554</v>
       </c>
       <c r="H21">
-        <v>1659.893422501193</v>
+        <v>1581.703457113507</v>
       </c>
       <c r="I21">
-        <v>-819.5482542062413</v>
+        <v>-823.574862969827</v>
       </c>
       <c r="J21">
-        <v>1047.077213553875</v>
+        <v>1121.939403144926</v>
       </c>
       <c r="K21">
-        <v>3193.3815061339</v>
+        <v>3226.730582470768</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.68046247666052</v>
+        <v>70.61612601428914</v>
       </c>
       <c r="G22">
-        <v>111.2682506622394</v>
+        <v>117.9250358291605</v>
       </c>
       <c r="H22">
-        <v>1684.031789674473</v>
+        <v>1688.669584935802</v>
       </c>
       <c r="I22">
-        <v>-751.0591777272898</v>
+        <v>-760.6848297876243</v>
       </c>
       <c r="J22">
-        <v>1049.14455771684</v>
+        <v>1077.237747311861</v>
       </c>
       <c r="K22">
-        <v>3085.097980028421</v>
+        <v>3260.090012762369</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.43862622251252</v>
+        <v>65.51034377415448</v>
       </c>
       <c r="G23">
-        <v>129.0070307158713</v>
+        <v>135.8183985025954</v>
       </c>
       <c r="H23">
-        <v>1556.891584865438</v>
+        <v>1647.367141889044</v>
       </c>
       <c r="I23">
-        <v>-729.8224521171248</v>
+        <v>-676.1332295167821</v>
       </c>
       <c r="J23">
-        <v>972.6909334797807</v>
+        <v>951.2892515718985</v>
       </c>
       <c r="K23">
-        <v>3176.970735126578</v>
+        <v>3324.699740180453</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.22681348376665</v>
+        <v>65.2744604964851</v>
       </c>
       <c r="G24">
-        <v>141.6447649026577</v>
+        <v>151.3969777402303</v>
       </c>
       <c r="H24">
-        <v>1580.494617030981</v>
+        <v>1630.826151163489</v>
       </c>
       <c r="I24">
-        <v>-649.4237314115674</v>
+        <v>-621.7304181602683</v>
       </c>
       <c r="J24">
-        <v>947.0361456246209</v>
+        <v>945.156601652783</v>
       </c>
       <c r="K24">
-        <v>3106.696659030394</v>
+        <v>3103.635659721567</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.43886926584791</v>
+        <v>63.72494830306528</v>
       </c>
       <c r="G25">
-        <v>164.5703927044163</v>
+        <v>165.5533786122514</v>
       </c>
       <c r="H25">
-        <v>1628.388217924511</v>
+        <v>1635.313769995501</v>
       </c>
       <c r="I25">
-        <v>-575.9314573272475</v>
+        <v>-624.8689318293697</v>
       </c>
       <c r="J25">
-        <v>864.7822039887083</v>
+        <v>887.5952980881081</v>
       </c>
       <c r="K25">
-        <v>3091.102362984815</v>
+        <v>3073.109554419246</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.61952581871799</v>
+        <v>59.73484805250565</v>
       </c>
       <c r="G26">
-        <v>184.4427359670819</v>
+        <v>178.4217304912102</v>
       </c>
       <c r="H26">
-        <v>1764.454936286335</v>
+        <v>1685.717282354833</v>
       </c>
       <c r="I26">
-        <v>-571.7569428624072</v>
+        <v>-541.7329618253201</v>
       </c>
       <c r="J26">
-        <v>808.7156983204017</v>
+        <v>824.366779486666</v>
       </c>
       <c r="K26">
-        <v>3049.863484078107</v>
+        <v>2992.176207241686</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.50512320509833</v>
+        <v>56.99068958069796</v>
       </c>
       <c r="G27">
-        <v>190.7584178023789</v>
+        <v>202.1923897734317</v>
       </c>
       <c r="H27">
-        <v>1667.716923013721</v>
+        <v>1736.398946510094</v>
       </c>
       <c r="I27">
-        <v>-484.14678493728</v>
+        <v>-479.1428302821566</v>
       </c>
       <c r="J27">
-        <v>802.6513098379223</v>
+        <v>777.4716997895712</v>
       </c>
       <c r="K27">
-        <v>3124.658362434825</v>
+        <v>3183.27403365148</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.23495700841718</v>
+        <v>55.12468355769975</v>
       </c>
       <c r="G28">
-        <v>218.845288597767</v>
+        <v>219.8326155774513</v>
       </c>
       <c r="H28">
-        <v>1725.760345961445</v>
+        <v>1671.073586926077</v>
       </c>
       <c r="I28">
-        <v>-459.2557968807812</v>
+        <v>-436.4280153683618</v>
       </c>
       <c r="J28">
-        <v>728.818946697785</v>
+        <v>734.599624504185</v>
       </c>
       <c r="K28">
-        <v>2906.073568593617</v>
+        <v>2923.205971220765</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.08407735404324</v>
+        <v>56.18708452663235</v>
       </c>
       <c r="G29">
-        <v>221.7920017157463</v>
+        <v>230.7145079276122</v>
       </c>
       <c r="H29">
-        <v>1752.97589102199</v>
+        <v>1803.823349915014</v>
       </c>
       <c r="I29">
-        <v>-381.9835470968232</v>
+        <v>-389.9391819073954</v>
       </c>
       <c r="J29">
-        <v>664.0578871541336</v>
+        <v>656.4884605348503</v>
       </c>
       <c r="K29">
-        <v>2869.371182414584</v>
+        <v>2869.904262603628</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.45780249047431</v>
+        <v>53.31758502190026</v>
       </c>
       <c r="G30">
-        <v>250.7329131193626</v>
+        <v>249.0351932880418</v>
       </c>
       <c r="H30">
-        <v>1692.555737123507</v>
+        <v>1776.458524942805</v>
       </c>
       <c r="I30">
-        <v>-330.7453707424312</v>
+        <v>-332.7293909931996</v>
       </c>
       <c r="J30">
-        <v>625.4010342731515</v>
+        <v>660.6067845913363</v>
       </c>
       <c r="K30">
-        <v>2817.895795488528</v>
+        <v>2790.716635056769</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.89383188090574</v>
+        <v>54.60483117343763</v>
       </c>
       <c r="G31">
-        <v>253.818779995648</v>
+        <v>259.2351312763436</v>
       </c>
       <c r="H31">
-        <v>1693.434185793668</v>
+        <v>1771.884531658341</v>
       </c>
       <c r="I31">
-        <v>-255.6111904723327</v>
+        <v>-267.8886287179802</v>
       </c>
       <c r="J31">
-        <v>577.2885349190215</v>
+        <v>582.1747323488694</v>
       </c>
       <c r="K31">
-        <v>2760.341968243873</v>
+        <v>2600.995145856947</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.16786150730633</v>
+        <v>51.68875471038567</v>
       </c>
       <c r="G32">
-        <v>292.9427605368911</v>
+        <v>283.7455993319381</v>
       </c>
       <c r="H32">
-        <v>1765.323333472954</v>
+        <v>1715.248178697511</v>
       </c>
       <c r="I32">
-        <v>-209.4770865531521</v>
+        <v>-217.0149292900411</v>
       </c>
       <c r="J32">
-        <v>535.8397093511491</v>
+        <v>526.0078906727144</v>
       </c>
       <c r="K32">
-        <v>2464.622226825887</v>
+        <v>2603.782840908898</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.94116558830388</v>
+        <v>51.33155589068411</v>
       </c>
       <c r="G33">
-        <v>294.491884141375</v>
+        <v>282.1491842617949</v>
       </c>
       <c r="H33">
-        <v>1797.546832881767</v>
+        <v>1750.975051194414</v>
       </c>
       <c r="I33">
-        <v>-142.7706768981532</v>
+        <v>-146.9711378682572</v>
       </c>
       <c r="J33">
-        <v>468.2316662885263</v>
+        <v>472.4544096168816</v>
       </c>
       <c r="K33">
-        <v>2288.630240491182</v>
+        <v>2427.324163236456</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.05638269640186</v>
+        <v>46.94685311375029</v>
       </c>
       <c r="G34">
-        <v>298.6102951307718</v>
+        <v>308.954132032038</v>
       </c>
       <c r="H34">
-        <v>1731.56905744081</v>
+        <v>1736.558970288314</v>
       </c>
       <c r="I34">
-        <v>-86.66362087888508</v>
+        <v>-85.45498768313109</v>
       </c>
       <c r="J34">
-        <v>443.0461749072066</v>
+        <v>421.5006566400108</v>
       </c>
       <c r="K34">
-        <v>2149.762422058861</v>
+        <v>2120.689975608518</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.4325729951472</v>
+        <v>47.38825558351292</v>
       </c>
       <c r="G35">
-        <v>323.9355263337209</v>
+        <v>332.1796708824446</v>
       </c>
       <c r="H35">
-        <v>1771.635298828944</v>
+        <v>1892.623341103533</v>
       </c>
       <c r="I35">
-        <v>-18.17788341811426</v>
+        <v>-19.48738901578059</v>
       </c>
       <c r="J35">
-        <v>382.1984269988676</v>
+        <v>388.6595535963885</v>
       </c>
       <c r="K35">
-        <v>2006.345027449699</v>
+        <v>2047.075027555696</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.34539876382165</v>
+        <v>46.04366994929944</v>
       </c>
       <c r="G36">
-        <v>358.9075797315027</v>
+        <v>336.9180481181922</v>
       </c>
       <c r="H36">
-        <v>1814.388557600227</v>
+        <v>1900.980135858706</v>
       </c>
       <c r="I36">
-        <v>46.19119618706173</v>
+        <v>48.2598951797339</v>
       </c>
       <c r="J36">
-        <v>339.1158985464947</v>
+        <v>345.4051329740008</v>
       </c>
       <c r="K36">
-        <v>1854.347875865739</v>
+        <v>1839.00743291554</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.17417829225774</v>
+        <v>47.46378439452964</v>
       </c>
       <c r="G37">
-        <v>378.8698085201805</v>
+        <v>347.1038376033483</v>
       </c>
       <c r="H37">
-        <v>1864.743242418483</v>
+        <v>1926.919411129302</v>
       </c>
       <c r="I37">
-        <v>118.5242982672649</v>
+        <v>114.354216274624</v>
       </c>
       <c r="J37">
-        <v>302.5314739018247</v>
+        <v>306.3453147294066</v>
       </c>
       <c r="K37">
-        <v>1580.101202962416</v>
+        <v>1573.960131113331</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.05588518421644</v>
+        <v>44.0311863694305</v>
       </c>
       <c r="G38">
-        <v>376.9460579086671</v>
+        <v>391.285245502023</v>
       </c>
       <c r="H38">
-        <v>1771.653317129177</v>
+        <v>1859.043980225692</v>
       </c>
       <c r="I38">
-        <v>186.7445551179646</v>
+        <v>178.1479051965104</v>
       </c>
       <c r="J38">
-        <v>236.3965846770796</v>
+        <v>256.3359284000349</v>
       </c>
       <c r="K38">
-        <v>1374.606207228891</v>
+        <v>1436.264393449308</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.9628382123619</v>
+        <v>46.07729386082662</v>
       </c>
       <c r="G39">
-        <v>385.2476582339854</v>
+        <v>381.3338413502577</v>
       </c>
       <c r="H39">
-        <v>1805.184754067543</v>
+        <v>1889.990073922617</v>
       </c>
       <c r="I39">
-        <v>245.7937361592227</v>
+        <v>250.4434024058183</v>
       </c>
       <c r="J39">
-        <v>193.7253543711629</v>
+        <v>191.8373743748848</v>
       </c>
       <c r="K39">
-        <v>1195.935208439484</v>
+        <v>1205.278738067778</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.39560955812102</v>
+        <v>44.5614733600346</v>
       </c>
       <c r="G40">
-        <v>417.6661657496755</v>
+        <v>423.0377203720407</v>
       </c>
       <c r="H40">
-        <v>1792.129229867347</v>
+        <v>1919.254476066074</v>
       </c>
       <c r="I40">
-        <v>313.2464090914766</v>
+        <v>340.9053007261345</v>
       </c>
       <c r="J40">
-        <v>146.4406305016578</v>
+        <v>146.0459214447112</v>
       </c>
       <c r="K40">
-        <v>911.300605679814</v>
+        <v>857.1112252681138</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.8745655518821</v>
+        <v>43.95954557745797</v>
       </c>
       <c r="G41">
-        <v>411.1713946334528</v>
+        <v>436.1062537359395</v>
       </c>
       <c r="H41">
-        <v>1816.105310669498</v>
+        <v>1843.233072540891</v>
       </c>
       <c r="I41">
-        <v>398.9842313349031</v>
+        <v>397.1348604709166</v>
       </c>
       <c r="J41">
-        <v>106.5911936975039</v>
+        <v>102.4803544191938</v>
       </c>
       <c r="K41">
-        <v>633.0788534011062</v>
+        <v>618.0749642916035</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.70070439689135</v>
+        <v>43.77726052806095</v>
       </c>
       <c r="G42">
-        <v>460.470365198345</v>
+        <v>446.8955227112613</v>
       </c>
       <c r="H42">
-        <v>1978.809754782288</v>
+        <v>1875.122561755383</v>
       </c>
       <c r="I42">
-        <v>461.5227203601343</v>
+        <v>457.2647393850942</v>
       </c>
       <c r="J42">
-        <v>51.32576633911626</v>
+        <v>56.02860616942833</v>
       </c>
       <c r="K42">
-        <v>332.4102946000206</v>
+        <v>331.9903647866624</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.88499160599154</v>
+        <v>42.4520548223032</v>
       </c>
       <c r="G43">
-        <v>469.1564076174422</v>
+        <v>442.5078845148216</v>
       </c>
       <c r="H43">
-        <v>1941.756418492347</v>
+        <v>1914.723078301699</v>
       </c>
       <c r="I43">
-        <v>532.5976668343757</v>
+        <v>559.4172801572087</v>
       </c>
       <c r="J43">
-        <v>5.381649689082801</v>
+        <v>5.484786087381911</v>
       </c>
       <c r="K43">
-        <v>35.0058799754346</v>
+        <v>33.44235947522301</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.15623384768021</v>
+        <v>39.81767581034134</v>
       </c>
       <c r="G44">
-        <v>477.6100693423892</v>
+        <v>470.932839789735</v>
       </c>
       <c r="H44">
-        <v>1840.5718542607</v>
+        <v>1924.281754794222</v>
       </c>
       <c r="I44">
-        <v>653.1370427682908</v>
+        <v>627.8262206527357</v>
       </c>
       <c r="J44">
-        <v>-41.22254945209284</v>
+        <v>-43.04751117215857</v>
       </c>
       <c r="K44">
-        <v>-283.3667826107709</v>
+        <v>-281.8219818713831</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.46119576288032</v>
+        <v>42.31616607314895</v>
       </c>
       <c r="G45">
-        <v>506.2374898761047</v>
+        <v>500.8796986055525</v>
       </c>
       <c r="H45">
-        <v>1894.302634374086</v>
+        <v>1944.933715686044</v>
       </c>
       <c r="I45">
-        <v>699.836888830111</v>
+        <v>749.937566983048</v>
       </c>
       <c r="J45">
-        <v>-88.30182260599726</v>
+        <v>-94.12635776214469</v>
       </c>
       <c r="K45">
-        <v>-635.0073344454614</v>
+        <v>-594.0326070205701</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.01027670880801</v>
+        <v>39.53189845243004</v>
       </c>
       <c r="G46">
-        <v>501.1442776286664</v>
+        <v>506.9381269410156</v>
       </c>
       <c r="H46">
-        <v>1917.943923262439</v>
+        <v>1987.369602761404</v>
       </c>
       <c r="I46">
-        <v>782.8941032862036</v>
+        <v>823.8958267642573</v>
       </c>
       <c r="J46">
-        <v>-139.1352181323762</v>
+        <v>-143.5406351626233</v>
       </c>
       <c r="K46">
-        <v>-945.9434528916474</v>
+        <v>-989.4638542755073</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.54604990825697</v>
+        <v>40.50451408110312</v>
       </c>
       <c r="G47">
-        <v>505.1402562679595</v>
+        <v>549.7487417634864</v>
       </c>
       <c r="H47">
-        <v>1863.44285206841</v>
+        <v>1853.852405767128</v>
       </c>
       <c r="I47">
-        <v>854.4144317826585</v>
+        <v>895.9507018441691</v>
       </c>
       <c r="J47">
-        <v>-186.8924338799433</v>
+        <v>-194.6777424308019</v>
       </c>
       <c r="K47">
-        <v>-1272.770473275637</v>
+        <v>-1344.781615957646</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.05891746858903</v>
+        <v>40.94500644268997</v>
       </c>
       <c r="G48">
-        <v>546.4316080943883</v>
+        <v>540.010440635496</v>
       </c>
       <c r="H48">
-        <v>2018.386861294454</v>
+        <v>2006.952954388687</v>
       </c>
       <c r="I48">
-        <v>945.7098641418847</v>
+        <v>1025.233111922449</v>
       </c>
       <c r="J48">
-        <v>-236.7430334354527</v>
+        <v>-238.4015961614084</v>
       </c>
       <c r="K48">
-        <v>-1623.927756745974</v>
+        <v>-1670.811437309122</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.00824654958317</v>
+        <v>39.56200442600624</v>
       </c>
       <c r="G49">
-        <v>542.0203546783434</v>
+        <v>546.3837808704254</v>
       </c>
       <c r="H49">
-        <v>1921.426186107146</v>
+        <v>1890.038411573915</v>
       </c>
       <c r="I49">
-        <v>1058.756396322029</v>
+        <v>1042.933381016569</v>
       </c>
       <c r="J49">
-        <v>-288.9438334083136</v>
+        <v>-286.5424956447802</v>
       </c>
       <c r="K49">
-        <v>-2008.99772787902</v>
+        <v>-2130.541241544229</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.18389538587554</v>
+        <v>38.3300396255133</v>
       </c>
       <c r="G50">
-        <v>603.97301126506</v>
+        <v>596.9082386912488</v>
       </c>
       <c r="H50">
-        <v>1943.641982246238</v>
+        <v>1977.918405069074</v>
       </c>
       <c r="I50">
-        <v>1141.7096006329</v>
+        <v>1150.482030958315</v>
       </c>
       <c r="J50">
-        <v>-342.3329269702506</v>
+        <v>-337.3193943026378</v>
       </c>
       <c r="K50">
-        <v>-2587.234683225483</v>
+        <v>-2423.619243406804</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.56569355240959</v>
+        <v>36.62068203494336</v>
       </c>
       <c r="G51">
-        <v>601.7167403270922</v>
+        <v>608.4411219341921</v>
       </c>
       <c r="H51">
-        <v>1970.611551967848</v>
+        <v>1963.952062684194</v>
       </c>
       <c r="I51">
-        <v>1315.521248118952</v>
+        <v>1309.201518436837</v>
       </c>
       <c r="J51">
-        <v>-368.7300088528602</v>
+        <v>-390.7630968933594</v>
       </c>
       <c r="K51">
-        <v>-2979.748169905007</v>
+        <v>-2817.810724005768</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.78174899750562</v>
+        <v>36.80167905563921</v>
       </c>
       <c r="G52">
-        <v>613.6860780517306</v>
+        <v>602.7349159491408</v>
       </c>
       <c r="H52">
-        <v>1960.413130369607</v>
+        <v>1967.693557674161</v>
       </c>
       <c r="I52">
-        <v>1350.481378356621</v>
+        <v>1351.219222758745</v>
       </c>
       <c r="J52">
-        <v>-419.9709821936559</v>
+        <v>-418.1721653427137</v>
       </c>
       <c r="K52">
-        <v>-3300.176358135093</v>
+        <v>-3485.052038290472</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.39203754425486</v>
+        <v>36.88534888150841</v>
       </c>
       <c r="G53">
-        <v>622.4060959655257</v>
+        <v>631.767190499047</v>
       </c>
       <c r="H53">
-        <v>1959.697507010784</v>
+        <v>2025.674229586788</v>
       </c>
       <c r="I53">
-        <v>1446.995923138025</v>
+        <v>1418.007487826246</v>
       </c>
       <c r="J53">
-        <v>-469.0677745495721</v>
+        <v>-490.6622820267382</v>
       </c>
       <c r="K53">
-        <v>-3791.352561751528</v>
+        <v>-3812.455721639456</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.05157389229309</v>
+        <v>35.10295781683602</v>
       </c>
       <c r="G54">
-        <v>668.9518714768433</v>
+        <v>657.5398284585602</v>
       </c>
       <c r="H54">
-        <v>1985.44776621218</v>
+        <v>1954.581348906226</v>
       </c>
       <c r="I54">
-        <v>1551.316432105714</v>
+        <v>1626.12047598912</v>
       </c>
       <c r="J54">
-        <v>-533.9230618938388</v>
+        <v>-554.8677776226118</v>
       </c>
       <c r="K54">
-        <v>-4393.331525240331</v>
+        <v>-4190.781276364597</v>
       </c>
     </row>
   </sheetData>
